--- a/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>64.172576605353726</v>
+        <v>64.172576550690124</v>
       </c>
       <c r="C2">
-        <v>66.972073869018828</v>
+        <v>66.972073851218781</v>
       </c>
       <c r="D2">
-        <v>53.312110435915841</v>
+        <v>53.312110414896743</v>
       </c>
       <c r="E2">
-        <v>70.566033674085745</v>
+        <v>70.566033640804164</v>
       </c>
       <c r="F2">
-        <v>44.728398765965899</v>
+        <v>44.728398766139925</v>
       </c>
       <c r="G2">
-        <v>56.209074189205118</v>
+        <v>56.209074174227084</v>
       </c>
       <c r="H2">
-        <v>48.597036554494089</v>
+        <v>48.597036509970039</v>
       </c>
       <c r="I2">
-        <v>57.989510254727712</v>
+        <v>57.989510254733261</v>
       </c>
       <c r="J2">
-        <v>69.193381038028008</v>
+        <v>69.193381023206896</v>
       </c>
       <c r="K2">
-        <v>54.051615047841118</v>
+        <v>54.051615035690006</v>
       </c>
       <c r="L2">
-        <v>52.546382782244379</v>
+        <v>52.546382764711176</v>
       </c>
       <c r="M2">
-        <v>65.00237625012474</v>
+        <v>65.002376221698782</v>
       </c>
       <c r="N2">
-        <v>60.852050728031955</v>
+        <v>60.852050714562516</v>
       </c>
       <c r="O2">
-        <v>47.411870590936267</v>
+        <v>47.411870575783915</v>
       </c>
       <c r="P2">
-        <v>57.86123335547174</v>
+        <v>57.861233331506597</v>
       </c>
       <c r="Q2">
-        <v>61.013458593955939</v>
+        <v>61.013458561485507</v>
       </c>
       <c r="R2">
-        <v>54.726252430784832</v>
+        <v>54.726252459006133</v>
       </c>
       <c r="S2">
-        <v>81.167941370128531</v>
+        <v>81.167941394899671</v>
       </c>
       <c r="T2">
-        <v>62.427337777981101</v>
+        <v>62.427337784586882</v>
       </c>
       <c r="U2">
-        <v>58.204444033731015</v>
+        <v>58.204444016177</v>
       </c>
       <c r="V2">
-        <v>47.915433748347951</v>
+        <v>47.915433744198687</v>
       </c>
       <c r="W2">
-        <v>43.439252401227755</v>
+        <v>43.43925236894367</v>
       </c>
       <c r="X2">
-        <v>55.680770529431825</v>
+        <v>55.680770509735844</v>
       </c>
       <c r="Y2">
-        <v>60.918193284940216</v>
+        <v>60.918193258115316</v>
       </c>
       <c r="Z2">
-        <v>59.231979170863326</v>
+        <v>59.231979150835585</v>
       </c>
       <c r="AA2">
-        <v>76.680717272296832</v>
+        <v>76.680717226009776</v>
       </c>
       <c r="AB2">
-        <v>76.956815845862806</v>
+        <v>76.956815770665443</v>
       </c>
       <c r="AC2">
-        <v>49.95672120514655</v>
+        <v>49.956721205155716</v>
       </c>
       <c r="AD2">
-        <v>76.350029171797459</v>
+        <v>76.350029087442522</v>
       </c>
       <c r="AE2">
-        <v>50.749089274347504</v>
+        <v>50.749089252543406</v>
       </c>
       <c r="AF2">
-        <v>59.540842343333551</v>
+        <v>59.540842312254156</v>
       </c>
       <c r="AG2">
-        <v>52.902881700000052</v>
+        <v>52.902881690520765</v>
       </c>
       <c r="AH2">
-        <v>60.263820871500982</v>
+        <v>60.263820842754072</v>
       </c>
       <c r="AI2">
-        <v>79.946757174709916</v>
+        <v>79.946757130606414</v>
       </c>
       <c r="AJ2">
-        <v>53.798559737102508</v>
+        <v>53.798559713818364</v>
       </c>
       <c r="AK2">
-        <v>58.706829231008179</v>
+        <v>58.706829203760961</v>
       </c>
       <c r="AL2">
-        <v>68.993579376163325</v>
+        <v>68.993579360104789</v>
       </c>
       <c r="AM2">
-        <v>63.009834228092409</v>
+        <v>63.009834181470325</v>
       </c>
       <c r="AN2">
-        <v>50.707563881429891</v>
+        <v>50.707563859743551</v>
       </c>
       <c r="AO2">
-        <v>64.98513699526346</v>
+        <v>64.985136953575847</v>
       </c>
       <c r="AP2">
-        <v>66.528342904613254</v>
+        <v>66.528342874771624</v>
       </c>
       <c r="AQ2">
-        <v>55.149544992237708</v>
+        <v>55.149544983943933</v>
       </c>
       <c r="AR2">
-        <v>82.125309800237048</v>
+        <v>82.125309792049123</v>
       </c>
       <c r="AS2">
-        <v>64.981700351335078</v>
+        <v>64.981700327874378</v>
       </c>
       <c r="AT2">
-        <v>66.545795287548117</v>
+        <v>66.545795257928276</v>
       </c>
       <c r="AU2">
-        <v>55.900209172654385</v>
+        <v>55.900209161608878</v>
       </c>
       <c r="AV2">
-        <v>52.321074189671229</v>
+        <v>52.321074095994419</v>
       </c>
       <c r="AW2">
-        <v>54.679999475851446</v>
+        <v>54.679999449901651</v>
       </c>
       <c r="AX2">
-        <v>65.462508354670632</v>
+        <v>65.462508327068804</v>
       </c>
       <c r="AY2">
-        <v>64.745287565264533</v>
+        <v>64.745287546250495</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>68.633534956696863</v>
+        <v>68.633534813138965</v>
       </c>
       <c r="C3">
-        <v>60.938860187392784</v>
+        <v>60.938860156508198</v>
       </c>
       <c r="D3">
-        <v>58.719491512831318</v>
+        <v>58.719491432350488</v>
       </c>
       <c r="E3">
-        <v>66.329527599908175</v>
+        <v>66.329527583612588</v>
       </c>
       <c r="F3">
-        <v>42.546898547505194</v>
+        <v>42.54689852011866</v>
       </c>
       <c r="G3">
-        <v>60.714261653832644</v>
+        <v>60.714261623976526</v>
       </c>
       <c r="H3">
-        <v>44.81420387978153</v>
+        <v>44.814203889684087</v>
       </c>
       <c r="I3">
-        <v>61.830062472614358</v>
+        <v>61.830062459500944</v>
       </c>
       <c r="J3">
-        <v>74.830664421013026</v>
+        <v>74.830664375081724</v>
       </c>
       <c r="K3">
-        <v>66.460946757836695</v>
+        <v>66.460946752333371</v>
       </c>
       <c r="L3">
-        <v>58.716786022645962</v>
+        <v>58.716785997056363</v>
       </c>
       <c r="M3">
-        <v>66.68053519644819</v>
+        <v>66.680468283941394</v>
       </c>
       <c r="N3">
-        <v>63.221206627266028</v>
+        <v>63.221206623705854</v>
       </c>
       <c r="O3">
-        <v>39.056757140452362</v>
+        <v>39.056757138322205</v>
       </c>
       <c r="P3">
-        <v>63.032940865448388</v>
+        <v>63.032940827786234</v>
       </c>
       <c r="Q3">
-        <v>54.752462840301682</v>
+        <v>54.752462813574986</v>
       </c>
       <c r="R3">
-        <v>45.107778335426254</v>
+        <v>45.107778304367976</v>
       </c>
       <c r="S3">
-        <v>74.562308137640272</v>
+        <v>74.562308107092903</v>
       </c>
       <c r="T3">
-        <v>63.653725689723466</v>
+        <v>63.653725665349668</v>
       </c>
       <c r="U3">
-        <v>61.866249933104349</v>
+        <v>61.866249904566942</v>
       </c>
       <c r="V3">
-        <v>53.89311405377061</v>
+        <v>53.893114060657993</v>
       </c>
       <c r="W3">
-        <v>50.461476958864978</v>
+        <v>50.461476915054135</v>
       </c>
       <c r="X3">
-        <v>50.400843669896958</v>
+        <v>50.400843655994848</v>
       </c>
       <c r="Y3">
-        <v>70.410876706657788</v>
+        <v>70.41087666310051</v>
       </c>
       <c r="Z3">
-        <v>65.088444099158409</v>
+        <v>65.088444076440808</v>
       </c>
       <c r="AA3">
-        <v>74.715495599598214</v>
+        <v>74.715495561832498</v>
       </c>
       <c r="AB3">
-        <v>70.725431772872383</v>
+        <v>70.725431737131046</v>
       </c>
       <c r="AC3">
-        <v>57.512672745071448</v>
+        <v>57.512672711661651</v>
       </c>
       <c r="AD3">
-        <v>76.269201786221046</v>
+        <v>76.269201769579183</v>
       </c>
       <c r="AE3">
-        <v>52.236656259332946</v>
+        <v>52.236656234382679</v>
       </c>
       <c r="AF3">
-        <v>63.333479047849622</v>
+        <v>63.333479007833127</v>
       </c>
       <c r="AG3">
-        <v>53.328678808074827</v>
+        <v>53.328678783224888</v>
       </c>
       <c r="AH3">
-        <v>68.689685951625279</v>
+        <v>68.689685920771808</v>
       </c>
       <c r="AI3">
-        <v>95.028218312998476</v>
+        <v>95.028218312147445</v>
       </c>
       <c r="AJ3">
-        <v>59.767356898825135</v>
+        <v>59.767356856751924</v>
       </c>
       <c r="AK3">
-        <v>65.856083591873769</v>
+        <v>65.85608355454093</v>
       </c>
       <c r="AL3">
-        <v>66.792198087798468</v>
+        <v>66.792198060104411</v>
       </c>
       <c r="AM3">
-        <v>70.294355476780098</v>
+        <v>70.294355396639375</v>
       </c>
       <c r="AN3">
-        <v>43.61767983107886</v>
+        <v>43.617679811988495</v>
       </c>
       <c r="AO3">
-        <v>68.681976892923075</v>
+        <v>68.681976827643126</v>
       </c>
       <c r="AP3">
-        <v>56.688838443788001</v>
+        <v>56.688838404852248</v>
       </c>
       <c r="AQ3">
-        <v>52.281924035853429</v>
+        <v>52.281924017451438</v>
       </c>
       <c r="AR3">
-        <v>84.249170341193562</v>
+        <v>84.249170314446175</v>
       </c>
       <c r="AS3">
-        <v>59.306191694487353</v>
+        <v>59.30619167969099</v>
       </c>
       <c r="AT3">
-        <v>63.70448900196979</v>
+        <v>63.704488973295071</v>
       </c>
       <c r="AU3">
-        <v>52.90419579559962</v>
+        <v>52.904195783100604</v>
       </c>
       <c r="AV3">
-        <v>50.269288190566087</v>
+        <v>50.269288136494168</v>
       </c>
       <c r="AW3">
-        <v>54.177420616347831</v>
+        <v>54.177420583993715</v>
       </c>
       <c r="AX3">
-        <v>58.43959423125537</v>
+        <v>58.439594215435967</v>
       </c>
       <c r="AY3">
-        <v>72.776909536666906</v>
+        <v>72.776909508300847</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_ind_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>64.172576550690124</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>66.972073851218781</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>53.312110414896743</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>70.566033640804164</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>44.728398766139925</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>56.209074174227084</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>48.597036509970039</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>57.989510254733261</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>69.193381023206896</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>54.051615035690006</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>52.546382764711176</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>65.002376221698782</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>60.852050714562516</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>47.411870575783915</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>57.861233331506597</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>61.013458561485507</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>54.726252459006133</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>81.167941394899671</v>
+        <v>73.583426920612695</v>
       </c>
       <c r="T2">
         <v>62.427337784586882</v>
@@ -588,55 +477,55 @@
         <v>59.231979150835585</v>
       </c>
       <c r="AA2">
-        <v>76.680717226009776</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>76.956815770665443</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>49.956721205155716</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>76.350029087442522</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>50.749089252543406</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>59.540842312254156</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>52.902881690520765</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>60.263820842754072</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>79.946757130606414</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>53.798559713818364</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>58.706829203760961</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>68.993579360104789</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>63.009834181470325</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>50.707563859743551</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>64.985136953575847</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>66.528342874771624</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>55.149544983943933</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>82.125309792049123</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>68.633534813138965</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>60.938860156508198</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>58.719491432350488</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>66.329527583612588</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>42.54689852011866</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>60.714261623976526</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>44.814203889684087</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>61.830062459500944</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>74.830664375081724</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>66.460946752333371</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>58.716785997056363</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>66.680468283941394</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>63.221206623705854</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>39.056757138322205</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>63.032940827786234</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>54.752462813574986</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>45.107778304367976</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>74.562308107092903</v>
@@ -743,55 +629,55 @@
         <v>65.088444076440808</v>
       </c>
       <c r="AA3">
-        <v>74.715495561832498</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>70.725431737131046</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>57.512672711661651</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>76.269201769579183</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>52.236656234382679</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>63.333479007833127</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>53.328678783224888</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>68.689685920771808</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>95.028218312147445</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>59.767356856751924</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>65.85608355454093</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>66.792198060104411</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>70.294355396639375</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>43.617679811988495</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>68.681976827643126</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>56.688838404852248</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>52.281924017451438</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>84.249170314446175</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>64.172576605353726</v>
+        <v>47.411870575783915</v>
       </c>
       <c r="C2">
-        <v>64.668101417083761</v>
+        <v>54.726252459006133</v>
       </c>
       <c r="D2">
-        <v>53.312110435915841</v>
+        <v>50.707563859743551</v>
       </c>
       <c r="E2">
-        <v>70.566033674085745</v>
+        <v>55.149544983943933</v>
       </c>
       <c r="F2">
         <v>44.728398765965899</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>68.633534956696863</v>
+        <v>44.659973050356776</v>
       </c>
       <c r="C3">
-        <v>60.938860187392784</v>
+        <v>45.107778304367976</v>
       </c>
       <c r="D3">
-        <v>58.719491512831318</v>
+        <v>44.245052626267544</v>
       </c>
       <c r="E3">
-        <v>66.329527599908175</v>
+        <v>53.747993844062918</v>
       </c>
       <c r="F3">
         <v>42.546898547505194</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_ind_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>64.172576605353726</v>
+        <v>60.780713310805943</v>
       </c>
       <c r="C2">
-        <v>64.668101417083761</v>
+        <v>49.183925646657009</v>
       </c>
       <c r="D2">
-        <v>53.312110435915841</v>
+        <v>64.887966098158202</v>
       </c>
       <c r="E2">
-        <v>70.566033674085745</v>
+        <v>52.598329430698286</v>
       </c>
       <c r="F2">
         <v>44.728398765965899</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>68.633534956696863</v>
+        <v>63.221206623705854</v>
       </c>
       <c r="C3">
-        <v>60.938860187392784</v>
+        <v>44.659973050356776</v>
       </c>
       <c r="D3">
-        <v>58.719491512831318</v>
+        <v>70.294355396639375</v>
       </c>
       <c r="E3">
-        <v>71.547073364370974</v>
+        <v>44.245052626267544</v>
       </c>
       <c r="F3">
         <v>42.546898547505194</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_GM_Fuku_ind_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>64.328001108765704</v>
+      </c>
+      <c r="C2">
+        <v>64.668101347654769</v>
+      </c>
+      <c r="D2">
+        <v>55.772936980643827</v>
+      </c>
+      <c r="E2">
+        <v>71.607593451844153</v>
+      </c>
+      <c r="F2">
+        <v>44.728398766139925</v>
+      </c>
+      <c r="G2">
+        <v>60.309367893723213</v>
+      </c>
+      <c r="H2">
+        <v>48.759155564125543</v>
+      </c>
+      <c r="I2">
+        <v>61.872251750696662</v>
+      </c>
+      <c r="J2">
+        <v>69.30997111616</v>
+      </c>
+      <c r="K2">
+        <v>54.875440458526633</v>
+      </c>
+      <c r="L2">
+        <v>55.239208615852185</v>
+      </c>
+      <c r="M2">
+        <v>71.693511942908742</v>
+      </c>
+      <c r="N2">
         <v>60.780713310805943</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>49.183925646657009</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>59.258126146645708</v>
+      </c>
+      <c r="Q2">
+        <v>61.013458561485507</v>
+      </c>
+      <c r="R2">
+        <v>54.726252459006133</v>
+      </c>
+      <c r="T2">
+        <v>59.637969058801453</v>
+      </c>
+      <c r="U2">
+        <v>59.115806674657208</v>
+      </c>
+      <c r="V2">
+        <v>54.123979663762434</v>
+      </c>
+      <c r="W2">
+        <v>46.826672852379637</v>
+      </c>
+      <c r="X2">
+        <v>56.984414343973732</v>
+      </c>
+      <c r="Y2">
+        <v>61.381334461670725</v>
+      </c>
+      <c r="Z2">
+        <v>59.231979150835585</v>
+      </c>
+      <c r="AA2">
+        <v>77.282882289767713</v>
+      </c>
+      <c r="AB2">
+        <v>76.956815770665443</v>
+      </c>
+      <c r="AC2">
+        <v>52.855470773954082</v>
+      </c>
+      <c r="AD2">
+        <v>78.818224472037286</v>
+      </c>
+      <c r="AE2">
+        <v>50.749089252543406</v>
+      </c>
+      <c r="AF2">
+        <v>59.540842312254156</v>
+      </c>
+      <c r="AG2">
+        <v>52.885028548557401</v>
+      </c>
+      <c r="AH2">
+        <v>61.954318656970472</v>
+      </c>
+      <c r="AI2">
+        <v>80.288744364048554</v>
+      </c>
+      <c r="AJ2">
+        <v>55.852335622743709</v>
+      </c>
+      <c r="AK2">
+        <v>60.539898638112028</v>
+      </c>
+      <c r="AL2">
+        <v>68.993579360104789</v>
+      </c>
+      <c r="AM2">
         <v>64.887966098158202</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>52.598329430698286</v>
       </c>
-      <c r="F2">
-        <v>44.728398765965899</v>
-      </c>
-      <c r="G2">
-        <v>60.309367924114014</v>
-      </c>
-      <c r="H2">
-        <v>48.597036554494089</v>
-      </c>
-      <c r="I2">
-        <v>61.863323084382174</v>
-      </c>
-      <c r="J2">
-        <v>69.193381038028008</v>
-      </c>
-      <c r="K2">
-        <v>54.051615047841118</v>
-      </c>
-      <c r="L2">
-        <v>53.478009557453888</v>
-      </c>
-      <c r="M2">
-        <v>71.693511950966723</v>
-      </c>
-      <c r="N2">
-        <v>60.083217561004815</v>
-      </c>
-      <c r="O2">
-        <v>47.411870590936267</v>
-      </c>
-      <c r="P2">
-        <v>59.258126184798009</v>
-      </c>
-      <c r="Q2">
-        <v>61.013458593955939</v>
-      </c>
-      <c r="R2">
-        <v>54.726252430784832</v>
-      </c>
-      <c r="T2">
-        <v>59.637969051539329</v>
-      </c>
-      <c r="U2">
-        <v>58.204444033731015</v>
-      </c>
-      <c r="V2">
-        <v>50.853501198681705</v>
-      </c>
-      <c r="W2">
-        <v>43.455932946878868</v>
-      </c>
-      <c r="X2">
-        <v>55.680770529431825</v>
-      </c>
-      <c r="Y2">
-        <v>60.918193284940216</v>
-      </c>
-      <c r="Z2">
-        <v>59.231979170863326</v>
-      </c>
-      <c r="AA2">
-        <v>76.680717272296832</v>
-      </c>
-      <c r="AB2">
-        <v>76.956815845862806</v>
-      </c>
-      <c r="AC2">
-        <v>49.95672120514655</v>
-      </c>
-      <c r="AD2">
-        <v>76.350029171797459</v>
-      </c>
-      <c r="AE2">
-        <v>50.749089274347504</v>
-      </c>
-      <c r="AF2">
-        <v>59.540842343333551</v>
-      </c>
-      <c r="AG2">
-        <v>52.902881700000052</v>
-      </c>
-      <c r="AH2">
-        <v>60.263820871500982</v>
-      </c>
-      <c r="AI2">
-        <v>79.946757174709916</v>
-      </c>
-      <c r="AJ2">
-        <v>53.798559737102508</v>
-      </c>
-      <c r="AK2">
-        <v>58.706829231008179</v>
-      </c>
-      <c r="AL2">
-        <v>68.993579376163325</v>
-      </c>
-      <c r="AM2">
-        <v>63.009834228092409</v>
-      </c>
-      <c r="AN2">
-        <v>50.707563881429891</v>
-      </c>
       <c r="AO2">
-        <v>64.98513699526346</v>
+        <v>64.985136953575847</v>
       </c>
       <c r="AP2">
-        <v>68.670574004626275</v>
+        <v>68.670573965367353</v>
       </c>
       <c r="AQ2">
-        <v>55.149544992237708</v>
+        <v>55.149544983943933</v>
       </c>
       <c r="AR2">
-        <v>82.125309800237048</v>
+        <v>82.189916954451718</v>
       </c>
       <c r="AS2">
-        <v>64.981700351335078</v>
+        <v>64.981700327874378</v>
       </c>
       <c r="AT2">
-        <v>66.545795287548117</v>
+        <v>67.840990013209577</v>
       </c>
       <c r="AU2">
-        <v>50.494887299481363</v>
+        <v>51.661027338524704</v>
       </c>
       <c r="AV2">
-        <v>52.364804311528225</v>
+        <v>59.595859919682617</v>
       </c>
       <c r="AW2">
-        <v>54.679999475851446</v>
+        <v>56.290455828351206</v>
       </c>
       <c r="AX2">
-        <v>65.462508354670632</v>
+        <v>66.119264996099261</v>
       </c>
       <c r="AY2">
-        <v>64.745287565264533</v>
+        <v>64.745287546250495</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>68.633534813138965</v>
+      </c>
+      <c r="C3">
+        <v>61.64424657311389</v>
+      </c>
+      <c r="D3">
+        <v>58.719491432350488</v>
+      </c>
+      <c r="E3">
+        <v>71.54707332841194</v>
+      </c>
+      <c r="F3">
+        <v>43.136066399879894</v>
+      </c>
+      <c r="G3">
+        <v>61.547051958611974</v>
+      </c>
+      <c r="H3">
+        <v>44.814203889684087</v>
+      </c>
+      <c r="I3">
+        <v>61.830062459500944</v>
+      </c>
+      <c r="J3">
+        <v>74.830664375081724</v>
+      </c>
+      <c r="K3">
+        <v>65.435860673152831</v>
+      </c>
+      <c r="L3">
+        <v>58.716785997056363</v>
+      </c>
+      <c r="M3">
+        <v>63.778536206498345</v>
+      </c>
+      <c r="N3">
         <v>63.221206623705854</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>44.659973050356776</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>63.671898857280063</v>
+      </c>
+      <c r="Q3">
+        <v>55.19673449466282</v>
+      </c>
+      <c r="R3">
+        <v>48.00908903057325</v>
+      </c>
+      <c r="S3">
+        <v>74.562308107092903</v>
+      </c>
+      <c r="T3">
+        <v>64.136790885466482</v>
+      </c>
+      <c r="U3">
+        <v>61.866249904566942</v>
+      </c>
+      <c r="V3">
+        <v>55.701329712164458</v>
+      </c>
+      <c r="W3">
+        <v>50.491108740687508</v>
+      </c>
+      <c r="X3">
+        <v>50.400843655994848</v>
+      </c>
+      <c r="Y3">
+        <v>70.41087666310051</v>
+      </c>
+      <c r="Z3">
+        <v>65.301690035185786</v>
+      </c>
+      <c r="AA3">
+        <v>74.715495561832498</v>
+      </c>
+      <c r="AB3">
+        <v>72.804752286776818</v>
+      </c>
+      <c r="AC3">
+        <v>57.512672711661651</v>
+      </c>
+      <c r="AD3">
+        <v>76.269201769579183</v>
+      </c>
+      <c r="AE3">
+        <v>53.237094456734916</v>
+      </c>
+      <c r="AF3">
+        <v>64.273271261801455</v>
+      </c>
+      <c r="AG3">
+        <v>53.328678783224888</v>
+      </c>
+      <c r="AH3">
+        <v>68.689685920771808</v>
+      </c>
+      <c r="AI3">
+        <v>73.196752071411822</v>
+      </c>
+      <c r="AJ3">
+        <v>59.767356856751924</v>
+      </c>
+      <c r="AK3">
+        <v>65.85608355454093</v>
+      </c>
+      <c r="AL3">
+        <v>69.353897730797556</v>
+      </c>
+      <c r="AM3">
         <v>70.294355396639375</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>44.245052626267544</v>
       </c>
-      <c r="F3">
-        <v>42.546898547505194</v>
-      </c>
-      <c r="G3">
-        <v>60.714261653832644</v>
-      </c>
-      <c r="H3">
-        <v>44.81420387978153</v>
-      </c>
-      <c r="I3">
-        <v>61.830062472614358</v>
-      </c>
-      <c r="J3">
-        <v>74.830664421013026</v>
-      </c>
-      <c r="K3">
-        <v>65.435860675512288</v>
-      </c>
-      <c r="L3">
-        <v>58.716786022645962</v>
-      </c>
-      <c r="M3">
-        <v>62.213815604186948</v>
-      </c>
-      <c r="N3">
-        <v>63.221206627266028</v>
-      </c>
-      <c r="O3">
-        <v>44.659973052140984</v>
-      </c>
-      <c r="P3">
-        <v>63.032940865448388</v>
-      </c>
-      <c r="Q3">
-        <v>54.752462840301682</v>
-      </c>
-      <c r="R3">
-        <v>45.107778335426254</v>
-      </c>
-      <c r="S3">
-        <v>74.562308137640272</v>
-      </c>
-      <c r="T3">
-        <v>63.653725689723466</v>
-      </c>
-      <c r="U3">
-        <v>61.866249933104349</v>
-      </c>
-      <c r="V3">
-        <v>55.701329574225412</v>
-      </c>
-      <c r="W3">
-        <v>50.4911087452125</v>
-      </c>
-      <c r="X3">
-        <v>50.400843669896958</v>
-      </c>
-      <c r="Y3">
-        <v>70.410876706657788</v>
-      </c>
-      <c r="Z3">
-        <v>65.088444099158409</v>
-      </c>
-      <c r="AA3">
-        <v>74.715495599598214</v>
-      </c>
-      <c r="AB3">
-        <v>70.725431772872383</v>
-      </c>
-      <c r="AC3">
-        <v>57.512672745071448</v>
-      </c>
-      <c r="AD3">
-        <v>76.269201786221046</v>
-      </c>
-      <c r="AE3">
-        <v>52.236656259332946</v>
-      </c>
-      <c r="AF3">
-        <v>63.333479047849622</v>
-      </c>
-      <c r="AG3">
-        <v>53.328678808074827</v>
-      </c>
-      <c r="AH3">
-        <v>68.689685951625279</v>
-      </c>
-      <c r="AI3">
-        <v>73.196752129399655</v>
-      </c>
-      <c r="AJ3">
-        <v>59.767356898825135</v>
-      </c>
-      <c r="AK3">
-        <v>65.856083591873769</v>
-      </c>
-      <c r="AL3">
-        <v>66.792198087798468</v>
-      </c>
-      <c r="AM3">
-        <v>70.294355476780098</v>
-      </c>
-      <c r="AN3">
-        <v>44.245052647711034</v>
-      </c>
       <c r="AO3">
-        <v>68.681976892923075</v>
+        <v>69.889414775575048</v>
       </c>
       <c r="AP3">
-        <v>56.688838443788001</v>
+        <v>57.232127881455945</v>
       </c>
       <c r="AQ3">
-        <v>53.747993853544685</v>
+        <v>54.754144567851213</v>
       </c>
       <c r="AR3">
-        <v>84.249170341193562</v>
+        <v>84.249170314446175</v>
       </c>
       <c r="AS3">
-        <v>59.306191694487353</v>
+        <v>59.889168041732667</v>
       </c>
       <c r="AT3">
-        <v>63.70448900196979</v>
+        <v>63.704488973295071</v>
       </c>
       <c r="AU3">
-        <v>53.454126138486536</v>
+        <v>53.454126126183489</v>
       </c>
       <c r="AV3">
-        <v>50.293772678997108</v>
+        <v>50.293772627659251</v>
       </c>
       <c r="AW3">
-        <v>54.177420616347831</v>
+        <v>54.177420583993715</v>
       </c>
       <c r="AX3">
-        <v>58.43959423125537</v>
+        <v>58.439594215435967</v>
       </c>
       <c r="AY3">
-        <v>72.776909536666906</v>
+        <v>73.036571889571476</v>
       </c>
     </row>
   </sheetData>
